--- a/Catchment Area Service Mapping - September.xlsx
+++ b/Catchment Area Service Mapping - September.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mezgabebe\Desktop\2025\ABA Mapping\ABA Product\251015 - Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32284FED-6E70-406D-BC20-B55F16D752A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2AC271-0A2A-4509-A9C2-CBF111446457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="860" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MainSheet" sheetId="1" r:id="rId1"/>
@@ -1812,7 +1812,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -1881,7 +1881,7 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2191,8 +2191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4799,7 +4799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Catchment Area Service Mapping - September.xlsx
+++ b/Catchment Area Service Mapping - September.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mezgabebe\Desktop\2025\ABA Mapping\ABA Product\251015 - Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2AC271-0A2A-4509-A9C2-CBF111446457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B7D5DB-DED2-4352-AA65-4FF46B43D039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="860" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MainSheet" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="588">
   <si>
     <t>Region</t>
   </si>
@@ -511,9 +511,6 @@
     <t>0910976414</t>
   </si>
   <si>
-    <t>&lt;span style="color: rgb(27, 101, 124); font-weight: bold; font-size: 18px;"&gt;Please mention the service provider involved in this sector:&lt;/span&gt;</t>
-  </si>
-  <si>
     <t>Tsige Gebrehymanot</t>
   </si>
   <si>
@@ -1571,9 +1568,6 @@
   </si>
   <si>
     <t>Phone number</t>
-  </si>
-  <si>
-    <t>service provider involved in this sector</t>
   </si>
   <si>
     <t>Medical Team</t>
@@ -2191,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2225,31 +2219,31 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1" t="s">
         <v>461</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>462</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>463</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>586</v>
+      </c>
+      <c r="J1" t="s">
+        <v>587</v>
+      </c>
+      <c r="K1" t="s">
         <v>464</v>
       </c>
-      <c r="I1" t="s">
-        <v>588</v>
-      </c>
-      <c r="J1" t="s">
-        <v>589</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>465</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>466</v>
-      </c>
-      <c r="M1" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -2673,10 +2667,10 @@
         <v>78</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F12" t="s">
         <v>32</v>
@@ -2755,7 +2749,7 @@
         <v>90</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E14" t="s">
         <v>91</v>
@@ -2876,63 +2870,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="46.36328125" customWidth="1"/>
     <col min="2" max="2" width="100.26953125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" t="s">
         <v>478</v>
       </c>
-      <c r="D1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>479</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>480</v>
       </c>
-      <c r="H1" t="s">
-        <v>481</v>
-      </c>
       <c r="I1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" t="s">
         <v>338</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>339</v>
-      </c>
-      <c r="E2" t="s">
-        <v>340</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -2952,19 +2945,19 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C3" t="s">
         <v>341</v>
       </c>
-      <c r="B3" t="s">
-        <v>543</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>342</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>343</v>
-      </c>
-      <c r="E3" t="s">
-        <v>344</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -2987,16 +2980,16 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" t="s">
         <v>345</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>346</v>
-      </c>
-      <c r="E4" t="s">
-        <v>347</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -3016,19 +3009,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" t="s">
         <v>348</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>349</v>
-      </c>
-      <c r="E5" t="s">
-        <v>350</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -3048,19 +3041,19 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" t="s">
         <v>351</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>352</v>
-      </c>
-      <c r="E6" t="s">
-        <v>353</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
@@ -3080,19 +3073,19 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" t="s">
         <v>354</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>355</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>356</v>
-      </c>
-      <c r="E7" t="s">
-        <v>357</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -3112,10 +3105,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C8" t="s">
         <v>106</v>
@@ -3141,16 +3134,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" t="s">
         <v>359</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>360</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>361</v>
-      </c>
-      <c r="E9" t="s">
-        <v>362</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -3170,19 +3163,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B10" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" t="s">
         <v>341</v>
       </c>
-      <c r="B10" t="s">
-        <v>358</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>342</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>343</v>
-      </c>
-      <c r="E10" t="s">
-        <v>344</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -3202,19 +3195,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" t="s">
+        <v>543</v>
+      </c>
+      <c r="C11" t="s">
         <v>363</v>
       </c>
-      <c r="B11" t="s">
-        <v>545</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>364</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>365</v>
-      </c>
-      <c r="E11" t="s">
-        <v>366</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -3237,16 +3230,16 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
@@ -3266,19 +3259,19 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B13" t="s">
+        <v>545</v>
+      </c>
+      <c r="C13" t="s">
         <v>367</v>
       </c>
-      <c r="B13" t="s">
-        <v>547</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>368</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>369</v>
-      </c>
-      <c r="E13" t="s">
-        <v>370</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -3295,13 +3288,13 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C14" t="s">
+        <v>370</v>
+      </c>
+      <c r="E14" t="s">
         <v>371</v>
-      </c>
-      <c r="E14" t="s">
-        <v>372</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -3315,16 +3308,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B15" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E15" t="s">
         <v>373</v>
-      </c>
-      <c r="E15" t="s">
-        <v>374</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -3338,16 +3331,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C16" t="s">
         <v>247</v>
       </c>
-      <c r="B16" t="s">
-        <v>354</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
         <v>248</v>
-      </c>
-      <c r="E16" t="s">
-        <v>249</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -3361,16 +3354,16 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -3384,16 +3377,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C18" t="s">
         <v>378</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E18" t="s">
         <v>379</v>
-      </c>
-      <c r="E18" t="s">
-        <v>380</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -3410,16 +3403,16 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C19" t="s">
+        <v>308</v>
+      </c>
+      <c r="D19" t="s">
         <v>309</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>310</v>
-      </c>
-      <c r="E19" t="s">
-        <v>311</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -3433,13 +3426,13 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C20" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -3453,19 +3446,19 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B21" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C21" t="s">
+        <v>380</v>
+      </c>
+      <c r="D21" t="s">
         <v>381</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>382</v>
-      </c>
-      <c r="E21" t="s">
-        <v>383</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -3482,16 +3475,16 @@
         <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C22" t="s">
+        <v>383</v>
+      </c>
+      <c r="D22" t="s">
         <v>384</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>385</v>
-      </c>
-      <c r="E22" t="s">
-        <v>386</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -3524,46 +3517,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J1" t="s">
         <v>478</v>
       </c>
-      <c r="D1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
+        <v>479</v>
+      </c>
+      <c r="L1" t="s">
+        <v>480</v>
+      </c>
+      <c r="M1" t="s">
         <v>482</v>
       </c>
-      <c r="G1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I1" t="s">
-        <v>511</v>
-      </c>
-      <c r="J1" t="s">
-        <v>479</v>
-      </c>
-      <c r="K1" t="s">
-        <v>480</v>
-      </c>
-      <c r="L1" t="s">
-        <v>481</v>
-      </c>
-      <c r="M1" t="s">
-        <v>483</v>
-      </c>
       <c r="N1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -3571,28 +3564,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" t="s">
         <v>297</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>298</v>
       </c>
-      <c r="E2" t="s">
-        <v>299</v>
-      </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2" t="s">
         <v>297</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>298</v>
-      </c>
-      <c r="I2" t="s">
-        <v>299</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -3615,28 +3608,28 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" t="s">
         <v>300</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>301</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H3" t="s">
         <v>302</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H3" t="s">
-        <v>303</v>
-      </c>
       <c r="I3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -3650,31 +3643,31 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D4" t="s">
         <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H4" t="s">
         <v>132</v>
       </c>
       <c r="I4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -3697,28 +3690,28 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" t="s">
         <v>173</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>174</v>
       </c>
-      <c r="E5" t="s">
-        <v>175</v>
-      </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" t="s">
         <v>173</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>174</v>
-      </c>
-      <c r="I5" t="s">
-        <v>175</v>
       </c>
       <c r="J5" t="s">
         <v>13</v>
@@ -3741,28 +3734,28 @@
         <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" t="s">
         <v>306</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>307</v>
       </c>
-      <c r="E6" t="s">
-        <v>308</v>
-      </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
+        <v>305</v>
+      </c>
+      <c r="H6" t="s">
         <v>306</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>307</v>
-      </c>
-      <c r="I6" t="s">
-        <v>308</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -3779,28 +3772,28 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" t="s">
         <v>309</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>310</v>
       </c>
-      <c r="E7" t="s">
-        <v>311</v>
-      </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H7" t="s">
         <v>309</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>310</v>
-      </c>
-      <c r="I7" t="s">
-        <v>311</v>
       </c>
       <c r="J7" t="s">
         <v>14</v>
@@ -3817,16 +3810,16 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" t="s">
         <v>312</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>313</v>
-      </c>
-      <c r="E8" t="s">
-        <v>314</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -3861,16 +3854,16 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D9" t="s">
         <v>315</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>316</v>
-      </c>
-      <c r="E9" t="s">
-        <v>317</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -3887,13 +3880,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D10" t="s">
         <v>318</v>
-      </c>
-      <c r="D10" t="s">
-        <v>319</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -3907,22 +3900,22 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" t="s">
+        <v>561</v>
+      </c>
+      <c r="C11" t="s">
         <v>320</v>
       </c>
-      <c r="B11" t="s">
-        <v>563</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
         <v>321</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>322</v>
-      </c>
-      <c r="H11" t="s">
-        <v>323</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
@@ -3936,19 +3929,19 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" t="s">
+        <v>555</v>
+      </c>
+      <c r="C12" t="s">
         <v>324</v>
       </c>
-      <c r="B12" t="s">
-        <v>557</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
         <v>325</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>326</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
@@ -3965,10 +3958,10 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -3985,28 +3978,28 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D14" t="s">
+        <v>327</v>
+      </c>
+      <c r="E14" t="s">
         <v>328</v>
       </c>
-      <c r="E14" t="s">
-        <v>329</v>
-      </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H14" t="s">
+        <v>327</v>
+      </c>
+      <c r="I14" t="s">
         <v>328</v>
-      </c>
-      <c r="I14" t="s">
-        <v>329</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
@@ -4020,31 +4013,31 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" t="s">
         <v>330</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>331</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>332</v>
       </c>
-      <c r="E15" t="s">
-        <v>333</v>
-      </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" t="s">
+        <v>330</v>
+      </c>
+      <c r="H15" t="s">
         <v>331</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>332</v>
-      </c>
-      <c r="I15" t="s">
-        <v>333</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
@@ -4058,31 +4051,31 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B16" t="s">
+        <v>564</v>
+      </c>
+      <c r="C16" t="s">
         <v>334</v>
       </c>
-      <c r="B16" t="s">
-        <v>566</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>335</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>336</v>
       </c>
-      <c r="E16" t="s">
-        <v>337</v>
-      </c>
       <c r="F16" t="s">
         <v>14</v>
       </c>
       <c r="G16" t="s">
+        <v>334</v>
+      </c>
+      <c r="H16" t="s">
         <v>335</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>336</v>
-      </c>
-      <c r="I16" t="s">
-        <v>337</v>
       </c>
       <c r="J16" t="s">
         <v>14</v>
@@ -4109,50 +4102,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="42.1796875" customWidth="1"/>
     <col min="2" max="2" width="50.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" t="s">
         <v>478</v>
       </c>
-      <c r="D1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1" t="s">
-        <v>479</v>
-      </c>
       <c r="G1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C2" t="s">
         <v>439</v>
       </c>
-      <c r="B2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>440</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>441</v>
-      </c>
-      <c r="E2" t="s">
-        <v>442</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -4166,16 +4160,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C3" t="s">
         <v>443</v>
       </c>
-      <c r="B3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>444</v>
-      </c>
-      <c r="E3" t="s">
-        <v>445</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -4189,16 +4183,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" t="s">
         <v>188</v>
       </c>
-      <c r="B4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>189</v>
-      </c>
-      <c r="E4" t="s">
-        <v>190</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -4215,13 +4209,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D5" t="s">
         <v>447</v>
-      </c>
-      <c r="D5" t="s">
-        <v>448</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -4235,16 +4229,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D6" t="s">
         <v>449</v>
-      </c>
-      <c r="D6" t="s">
-        <v>450</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -4261,16 +4255,16 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C7" t="s">
+        <v>450</v>
+      </c>
+      <c r="D7" t="s">
         <v>451</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>452</v>
-      </c>
-      <c r="E7" t="s">
-        <v>453</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -4287,16 +4281,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D8" t="s">
         <v>454</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>455</v>
-      </c>
-      <c r="E8" t="s">
-        <v>456</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -4310,19 +4304,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C9" t="s">
         <v>457</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>458</v>
       </c>
-      <c r="D9" t="s">
-        <v>459</v>
-      </c>
       <c r="E9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -4343,9 +4337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4354,46 +4346,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>158</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J1" t="s">
         <v>478</v>
       </c>
-      <c r="D1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
+        <v>479</v>
+      </c>
+      <c r="L1" t="s">
+        <v>480</v>
+      </c>
+      <c r="M1" t="s">
         <v>482</v>
       </c>
-      <c r="G1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I1" t="s">
-        <v>511</v>
-      </c>
-      <c r="J1" t="s">
-        <v>479</v>
-      </c>
-      <c r="K1" t="s">
-        <v>480</v>
-      </c>
-      <c r="L1" t="s">
-        <v>481</v>
-      </c>
-      <c r="M1" t="s">
-        <v>483</v>
-      </c>
       <c r="N1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -4401,28 +4393,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" t="s">
         <v>388</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>389</v>
       </c>
-      <c r="E2" t="s">
-        <v>390</v>
-      </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H2" t="s">
         <v>388</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>389</v>
-      </c>
-      <c r="I2" t="s">
-        <v>390</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -4442,31 +4434,31 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3" t="s">
         <v>391</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>392</v>
       </c>
-      <c r="E3" t="s">
-        <v>393</v>
-      </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
+        <v>390</v>
+      </c>
+      <c r="H3" t="s">
         <v>391</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>392</v>
-      </c>
-      <c r="I3" t="s">
-        <v>393</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -4483,10 +4475,10 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" t="s">
         <v>394</v>
-      </c>
-      <c r="C4" t="s">
-        <v>395</v>
       </c>
       <c r="D4" t="s">
         <v>75</v>
@@ -4498,7 +4490,7 @@
         <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H4" t="s">
         <v>75</v>
@@ -4524,16 +4516,16 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E5" t="s">
         <v>396</v>
-      </c>
-      <c r="E5" t="s">
-        <v>397</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -4559,39 +4551,42 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="37.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" t="s">
         <v>478</v>
       </c>
-      <c r="D1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1" t="s">
-        <v>479</v>
-      </c>
       <c r="G1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C2" t="s">
         <v>106</v>
@@ -4617,16 +4612,16 @@
         <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" t="s">
         <v>399</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>400</v>
-      </c>
-      <c r="E3" t="s">
-        <v>401</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -4643,13 +4638,13 @@
         <v>149</v>
       </c>
       <c r="B4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" t="s">
         <v>402</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>403</v>
-      </c>
-      <c r="D4" t="s">
-        <v>404</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -4663,19 +4658,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D5" t="s">
         <v>405</v>
       </c>
-      <c r="D5" t="s">
-        <v>406</v>
-      </c>
       <c r="E5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -4701,78 +4696,81 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="44.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J1" t="s">
         <v>478</v>
       </c>
-      <c r="D1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
+        <v>479</v>
+      </c>
+      <c r="L1" t="s">
+        <v>480</v>
+      </c>
+      <c r="M1" t="s">
         <v>482</v>
       </c>
-      <c r="G1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I1" t="s">
-        <v>511</v>
-      </c>
-      <c r="J1" t="s">
-        <v>479</v>
-      </c>
-      <c r="K1" t="s">
-        <v>480</v>
-      </c>
-      <c r="L1" t="s">
-        <v>481</v>
-      </c>
-      <c r="M1" t="s">
-        <v>483</v>
-      </c>
       <c r="N1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" t="s">
+        <v>577</v>
+      </c>
+      <c r="C2" t="s">
         <v>341</v>
       </c>
-      <c r="B2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>342</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>343</v>
       </c>
-      <c r="E2" t="s">
-        <v>344</v>
-      </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H2" t="s">
         <v>342</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>343</v>
-      </c>
-      <c r="I2" t="s">
-        <v>344</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -4799,8 +4797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4811,37 +4809,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D1" t="s">
         <v>580</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>581</v>
       </c>
-      <c r="C1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>582</v>
       </c>
-      <c r="E1" t="s">
-        <v>583</v>
-      </c>
-      <c r="F1" t="s">
-        <v>584</v>
-      </c>
       <c r="G1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>481</v>
-      </c>
       <c r="J1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -4849,16 +4847,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E2" t="s">
         <v>408</v>
-      </c>
-      <c r="E2" t="s">
-        <v>409</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -4925,16 +4923,16 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" t="s">
         <v>410</v>
       </c>
-      <c r="C7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>411</v>
-      </c>
-      <c r="E7" t="s">
-        <v>412</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -4951,16 +4949,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C8" t="s">
         <v>413</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>407</v>
+      </c>
+      <c r="E8" t="s">
         <v>414</v>
-      </c>
-      <c r="D8" t="s">
-        <v>408</v>
-      </c>
-      <c r="E8" t="s">
-        <v>415</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
@@ -5010,16 +5008,16 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
+        <v>415</v>
+      </c>
+      <c r="C12" t="s">
         <v>416</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>417</v>
       </c>
-      <c r="D12" t="s">
-        <v>418</v>
-      </c>
       <c r="E12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J12">
         <v>14</v>
@@ -5033,19 +5031,19 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C13" t="s">
+        <v>418</v>
+      </c>
+      <c r="D13" t="s">
+        <v>417</v>
+      </c>
+      <c r="E13" t="s">
+        <v>376</v>
+      </c>
+      <c r="F13" t="s">
         <v>419</v>
-      </c>
-      <c r="D13" t="s">
-        <v>418</v>
-      </c>
-      <c r="E13" t="s">
-        <v>377</v>
-      </c>
-      <c r="F13" t="s">
-        <v>420</v>
       </c>
       <c r="J13">
         <v>14</v>
@@ -5081,19 +5079,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J16">
         <v>16</v>
@@ -5107,16 +5105,16 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C17" t="s">
+        <v>420</v>
+      </c>
+      <c r="D17" t="s">
         <v>407</v>
       </c>
-      <c r="C17" t="s">
-        <v>421</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>408</v>
-      </c>
-      <c r="E17" t="s">
-        <v>409</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -5150,16 +5148,16 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G19" t="s">
         <v>14</v>
@@ -5176,16 +5174,16 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J20">
         <v>18</v>
@@ -5203,7 +5201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -5217,42 +5215,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" t="s">
         <v>478</v>
       </c>
-      <c r="D1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>479</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>480</v>
       </c>
-      <c r="H1" t="s">
-        <v>481</v>
-      </c>
       <c r="I1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C2" t="s">
         <v>106</v>
@@ -5275,7 +5273,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B3" t="s">
         <v>109</v>
@@ -5307,7 +5305,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B4" t="s">
         <v>109</v>
@@ -5333,7 +5331,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B5" t="s">
         <v>109</v>
@@ -5368,7 +5366,7 @@
         <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C6" t="s">
         <v>117</v>
@@ -5397,7 +5395,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B7" t="s">
         <v>120</v>
@@ -5423,7 +5421,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B8" t="s">
         <v>109</v>
@@ -5449,7 +5447,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B9" t="s">
         <v>120</v>
@@ -5501,7 +5499,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
         <v>109</v>
@@ -5562,7 +5560,7 @@
         <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C13" t="s">
         <v>141</v>
@@ -5591,7 +5589,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B14" t="s">
         <v>109</v>
@@ -5617,7 +5615,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B15" t="s">
         <v>109</v>
@@ -5643,7 +5641,7 @@
         <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C16" t="s">
         <v>150</v>
@@ -5666,7 +5664,7 @@
         <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C17" t="s">
         <v>153</v>
@@ -5686,7 +5684,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B18" t="s">
         <v>109</v>
@@ -5719,9 +5717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5734,28 +5730,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" t="s">
         <v>463</v>
       </c>
-      <c r="E1" t="s">
-        <v>464</v>
-      </c>
       <c r="F1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1" t="s">
         <v>482</v>
       </c>
-      <c r="G1" t="s">
-        <v>483</v>
-      </c>
       <c r="H1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -5766,7 +5762,7 @@
         <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E2" t="s">
         <v>133</v>
@@ -5804,51 +5800,51 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" t="s">
         <v>478</v>
       </c>
-      <c r="D1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>479</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>480</v>
       </c>
-      <c r="H1" t="s">
-        <v>481</v>
-      </c>
       <c r="I1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" t="s">
         <v>182</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>183</v>
-      </c>
-      <c r="E2" t="s">
-        <v>184</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -5862,10 +5858,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C3" t="s">
         <v>106</v>
@@ -5888,19 +5884,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" t="s">
         <v>185</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>186</v>
-      </c>
-      <c r="E4" t="s">
-        <v>187</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -5920,19 +5916,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" t="s">
         <v>170</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>171</v>
-      </c>
-      <c r="E5" t="s">
-        <v>172</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -5946,16 +5942,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
+        <v>491</v>
+      </c>
+      <c r="C6" t="s">
         <v>188</v>
       </c>
-      <c r="B6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>189</v>
-      </c>
-      <c r="E6" t="s">
-        <v>190</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -5969,16 +5965,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>192</v>
-      </c>
-      <c r="E7" t="s">
-        <v>193</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -5992,16 +5988,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" t="s">
+        <v>492</v>
+      </c>
+      <c r="C8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" t="s">
         <v>194</v>
-      </c>
-      <c r="B8" t="s">
-        <v>493</v>
-      </c>
-      <c r="C8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" t="s">
-        <v>195</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -6015,19 +6011,19 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" t="s">
         <v>196</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>197</v>
-      </c>
-      <c r="E9" t="s">
-        <v>198</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -6041,19 +6037,19 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" t="s">
         <v>199</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>200</v>
-      </c>
-      <c r="E10" t="s">
-        <v>201</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -6067,19 +6063,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" t="s">
         <v>202</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>203</v>
-      </c>
-      <c r="E11" t="s">
-        <v>204</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -6093,16 +6089,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" t="s">
         <v>205</v>
-      </c>
-      <c r="D12" t="s">
-        <v>206</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -6116,16 +6112,16 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" t="s">
+        <v>497</v>
+      </c>
+      <c r="C13" t="s">
         <v>207</v>
       </c>
-      <c r="B13" t="s">
-        <v>498</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>208</v>
-      </c>
-      <c r="D13" t="s">
-        <v>209</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -6142,13 +6138,13 @@
         <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" t="s">
         <v>210</v>
-      </c>
-      <c r="D14" t="s">
-        <v>211</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -6162,16 +6158,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" t="s">
         <v>212</v>
-      </c>
-      <c r="D15" t="s">
-        <v>213</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -6188,13 +6184,13 @@
         <v>152</v>
       </c>
       <c r="B16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C16" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" t="s">
         <v>214</v>
-      </c>
-      <c r="D16" t="s">
-        <v>215</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -6208,19 +6204,19 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" t="s">
         <v>216</v>
       </c>
-      <c r="C17" t="s">
-        <v>217</v>
-      </c>
       <c r="D17" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" t="s">
         <v>180</v>
-      </c>
-      <c r="E17" t="s">
-        <v>181</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -6234,19 +6230,19 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" t="s">
         <v>218</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>219</v>
-      </c>
-      <c r="E18" t="s">
-        <v>220</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -6267,7 +6263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -6282,46 +6278,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J1" t="s">
         <v>478</v>
       </c>
-      <c r="D1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
+        <v>479</v>
+      </c>
+      <c r="L1" t="s">
+        <v>480</v>
+      </c>
+      <c r="M1" t="s">
         <v>482</v>
       </c>
-      <c r="G1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I1" t="s">
-        <v>511</v>
-      </c>
-      <c r="J1" t="s">
-        <v>479</v>
-      </c>
-      <c r="K1" t="s">
-        <v>480</v>
-      </c>
-      <c r="L1" t="s">
-        <v>481</v>
-      </c>
-      <c r="M1" t="s">
-        <v>483</v>
-      </c>
       <c r="N1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -6329,28 +6325,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" t="s">
         <v>159</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>160</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>161</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>162</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>163</v>
-      </c>
-      <c r="I2" t="s">
-        <v>164</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
@@ -6373,13 +6369,13 @@
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
@@ -6399,28 +6395,28 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
         <v>166</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>167</v>
       </c>
-      <c r="E4" t="s">
-        <v>168</v>
-      </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" t="s">
         <v>166</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>167</v>
-      </c>
-      <c r="I4" t="s">
-        <v>168</v>
       </c>
       <c r="J4" t="s">
         <v>13</v>
@@ -6440,31 +6436,31 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
         <v>169</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>170</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>171</v>
       </c>
-      <c r="E5" t="s">
-        <v>172</v>
-      </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" t="s">
         <v>170</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>171</v>
-      </c>
-      <c r="I5" t="s">
-        <v>172</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -6481,28 +6477,28 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" t="s">
         <v>173</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>174</v>
       </c>
-      <c r="E6" t="s">
-        <v>175</v>
-      </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" t="s">
         <v>173</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>174</v>
-      </c>
-      <c r="I6" t="s">
-        <v>175</v>
       </c>
       <c r="J6" t="s">
         <v>13</v>
@@ -6525,13 +6521,13 @@
         <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C7" t="s">
         <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
         <v>140</v>
@@ -6543,7 +6539,7 @@
         <v>138</v>
       </c>
       <c r="H7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I7" t="s">
         <v>140</v>
@@ -6569,22 +6565,22 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" t="s">
         <v>177</v>
       </c>
-      <c r="D8" t="s">
-        <v>178</v>
-      </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" t="s">
         <v>177</v>
-      </c>
-      <c r="H8" t="s">
-        <v>178</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -6601,28 +6597,28 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" t="s">
         <v>177</v>
       </c>
-      <c r="D9" t="s">
-        <v>178</v>
-      </c>
       <c r="E9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" t="s">
         <v>177</v>
       </c>
-      <c r="H9" t="s">
-        <v>178</v>
-      </c>
       <c r="I9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -6636,31 +6632,31 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" t="s">
         <v>179</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>180</v>
       </c>
-      <c r="E10" t="s">
-        <v>181</v>
-      </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" t="s">
         <v>179</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>180</v>
-      </c>
-      <c r="I10" t="s">
-        <v>181</v>
       </c>
       <c r="J10" t="s">
         <v>14</v>
@@ -6681,9 +6677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6694,45 +6688,45 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" t="s">
         <v>478</v>
       </c>
-      <c r="D1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1" t="s">
-        <v>479</v>
-      </c>
       <c r="G1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" t="s">
         <v>221</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>222</v>
-      </c>
-      <c r="E2" t="s">
-        <v>223</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -6746,19 +6740,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
         <v>224</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>225</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>226</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>227</v>
-      </c>
-      <c r="E3" t="s">
-        <v>228</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
@@ -6772,19 +6766,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" t="s">
         <v>229</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>230</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>231</v>
-      </c>
-      <c r="E4" t="s">
-        <v>232</v>
       </c>
       <c r="F4" t="s">
         <v>14</v>
@@ -6798,19 +6792,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" t="s">
         <v>233</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>234</v>
-      </c>
-      <c r="E5" t="s">
-        <v>235</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -6824,19 +6818,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" t="s">
         <v>236</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>237</v>
-      </c>
-      <c r="E6" t="s">
-        <v>238</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
@@ -6850,16 +6844,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" t="s">
         <v>239</v>
-      </c>
-      <c r="E7" t="s">
-        <v>240</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
@@ -6873,19 +6867,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>515</v>
+      </c>
+      <c r="C8" t="s">
         <v>241</v>
       </c>
-      <c r="B8" t="s">
-        <v>517</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>242</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>243</v>
-      </c>
-      <c r="E8" t="s">
-        <v>244</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -6899,16 +6893,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" t="s">
         <v>245</v>
-      </c>
-      <c r="E9" t="s">
-        <v>246</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -6922,16 +6916,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C10" t="s">
         <v>247</v>
       </c>
-      <c r="B10" t="s">
-        <v>519</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>248</v>
-      </c>
-      <c r="E10" t="s">
-        <v>249</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -6945,16 +6939,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" t="s">
         <v>250</v>
-      </c>
-      <c r="E11" t="s">
-        <v>251</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
@@ -6968,16 +6962,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" t="s">
         <v>252</v>
-      </c>
-      <c r="E12" t="s">
-        <v>253</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
@@ -6991,19 +6985,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B13" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" t="s">
         <v>254</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>255</v>
-      </c>
-      <c r="E13" t="s">
-        <v>256</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
@@ -7017,16 +7011,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" t="s">
+        <v>520</v>
+      </c>
+      <c r="C14" t="s">
         <v>257</v>
       </c>
-      <c r="B14" t="s">
-        <v>522</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>258</v>
-      </c>
-      <c r="D14" t="s">
-        <v>259</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -7040,13 +7034,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
@@ -7060,16 +7054,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B16" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" t="s">
         <v>261</v>
-      </c>
-      <c r="D16" t="s">
-        <v>262</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
@@ -7083,13 +7077,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
@@ -7106,10 +7100,10 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
@@ -7126,16 +7120,16 @@
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" t="s">
         <v>265</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>266</v>
-      </c>
-      <c r="E19" t="s">
-        <v>267</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -7149,19 +7143,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C20" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" t="s">
         <v>268</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>269</v>
-      </c>
-      <c r="E20" t="s">
-        <v>270</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
@@ -7175,19 +7169,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C21" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" t="s">
         <v>271</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>272</v>
-      </c>
-      <c r="E21" t="s">
-        <v>273</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
@@ -7201,19 +7195,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C22" t="s">
         <v>274</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>275</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>276</v>
-      </c>
-      <c r="E22" t="s">
-        <v>277</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
@@ -7235,79 +7229,80 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="31.36328125" customWidth="1"/>
     <col min="2" max="2" width="50.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J1" t="s">
         <v>478</v>
       </c>
-      <c r="D1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>482</v>
       </c>
-      <c r="G1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I1" t="s">
-        <v>511</v>
-      </c>
-      <c r="J1" t="s">
-        <v>479</v>
-      </c>
-      <c r="K1" t="s">
-        <v>483</v>
-      </c>
       <c r="L1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D2" t="s">
         <v>425</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>426</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>427</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>428</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>429</v>
-      </c>
-      <c r="I2" t="s">
-        <v>430</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -7321,31 +7316,31 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C3" t="s">
+        <v>430</v>
+      </c>
+      <c r="D3" t="s">
         <v>431</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>432</v>
       </c>
-      <c r="E3" t="s">
-        <v>433</v>
-      </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
+        <v>430</v>
+      </c>
+      <c r="H3" t="s">
         <v>431</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>432</v>
-      </c>
-      <c r="I3" t="s">
-        <v>433</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -7359,19 +7354,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D4" t="s">
         <v>434</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>435</v>
-      </c>
-      <c r="E4" t="s">
-        <v>436</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -7392,7 +7387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -7406,45 +7401,45 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1" t="s">
         <v>463</v>
       </c>
-      <c r="D1" t="s">
-        <v>464</v>
-      </c>
       <c r="E1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F1" t="s">
         <v>479</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>480</v>
       </c>
-      <c r="G1" t="s">
-        <v>481</v>
-      </c>
       <c r="H1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C2" t="s">
         <v>278</v>
       </c>
-      <c r="B2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>279</v>
-      </c>
-      <c r="D2" t="s">
-        <v>280</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -7464,16 +7459,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" t="s">
         <v>227</v>
-      </c>
-      <c r="D3" t="s">
-        <v>228</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
@@ -7487,16 +7482,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C4" t="s">
         <v>282</v>
       </c>
-      <c r="B4" t="s">
-        <v>533</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>283</v>
-      </c>
-      <c r="D4" t="s">
-        <v>284</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -7510,16 +7505,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" t="s">
         <v>285</v>
-      </c>
-      <c r="D5" t="s">
-        <v>286</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -7533,13 +7528,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -7553,13 +7548,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -7573,16 +7568,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D8" t="s">
         <v>243</v>
-      </c>
-      <c r="D8" t="s">
-        <v>244</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -7596,16 +7591,16 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" t="s">
         <v>289</v>
-      </c>
-      <c r="D9" t="s">
-        <v>290</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -7625,16 +7620,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" t="s">
+        <v>532</v>
+      </c>
+      <c r="C10" t="s">
         <v>291</v>
       </c>
-      <c r="B10" t="s">
-        <v>534</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>292</v>
-      </c>
-      <c r="D10" t="s">
-        <v>293</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -7648,13 +7643,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B11" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -7671,13 +7666,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" t="s">
         <v>266</v>
-      </c>
-      <c r="D12" t="s">
-        <v>267</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -7691,16 +7686,16 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" t="s">
         <v>295</v>
-      </c>
-      <c r="D13" t="s">
-        <v>296</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -7714,16 +7709,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" t="s">
         <v>269</v>
-      </c>
-      <c r="D14" t="s">
-        <v>270</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -7744,7 +7739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -7756,69 +7751,69 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" t="s">
+        <v>462</v>
+      </c>
+      <c r="I1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J1" t="s">
         <v>478</v>
       </c>
-      <c r="D1" t="s">
-        <v>463</v>
-      </c>
-      <c r="E1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>482</v>
       </c>
-      <c r="G1" t="s">
-        <v>510</v>
-      </c>
-      <c r="H1" t="s">
-        <v>463</v>
-      </c>
-      <c r="I1" t="s">
-        <v>511</v>
-      </c>
-      <c r="J1" t="s">
-        <v>479</v>
-      </c>
-      <c r="K1" t="s">
-        <v>483</v>
-      </c>
       <c r="L1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D2" t="s">
         <v>425</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>426</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>427</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>428</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>429</v>
-      </c>
-      <c r="I2" t="s">
-        <v>430</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -7832,19 +7827,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" t="s">
         <v>289</v>
-      </c>
-      <c r="E3" t="s">
-        <v>290</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -7858,19 +7853,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E4" t="s">
         <v>289</v>
-      </c>
-      <c r="E4" t="s">
-        <v>290</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>

--- a/Catchment Area Service Mapping - September.xlsx
+++ b/Catchment Area Service Mapping - September.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mezgabebe\Desktop\2025\ABA Mapping\ABA Product\251015 - Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B7D5DB-DED2-4352-AA65-4FF46B43D039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABBB6B1-3B39-4AEC-B798-A2AE2E8FD3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="860" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="860" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MainSheet" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="588">
   <si>
     <t>Region</t>
   </si>
@@ -4795,10 +4795,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4876,46 +4876,103 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" t="s">
+        <v>411</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D4" t="s">
+        <v>407</v>
+      </c>
+      <c r="E4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E5" t="s">
+        <v>414</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D6" t="s">
+        <v>417</v>
+      </c>
+      <c r="E6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" t="s">
+        <v>419</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -4926,22 +4983,22 @@
         <v>409</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>340</v>
       </c>
       <c r="D7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="E7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
+        <v>376</v>
+      </c>
+      <c r="F7" t="s">
+        <v>409</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -4949,246 +5006,79 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C8" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D8" t="s">
         <v>407</v>
       </c>
       <c r="E8" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>13.583920900000001</v>
+      </c>
+      <c r="I8">
+        <v>38.142608799999998</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>421</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>407</v>
+      </c>
+      <c r="E9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" t="s">
+        <v>417</v>
+      </c>
+      <c r="E10" t="s">
+        <v>422</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>415</v>
-      </c>
-      <c r="C12" t="s">
-        <v>416</v>
-      </c>
-      <c r="D12" t="s">
-        <v>417</v>
-      </c>
-      <c r="E12" t="s">
-        <v>414</v>
-      </c>
-      <c r="J12">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>419</v>
-      </c>
-      <c r="C13" t="s">
-        <v>418</v>
-      </c>
-      <c r="D13" t="s">
-        <v>417</v>
-      </c>
-      <c r="E13" t="s">
-        <v>376</v>
-      </c>
-      <c r="F13" t="s">
-        <v>419</v>
-      </c>
-      <c r="J13">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14">
-        <v>15</v>
-      </c>
-      <c r="K14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15">
-        <v>15</v>
-      </c>
-      <c r="K15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>409</v>
-      </c>
-      <c r="C16" t="s">
-        <v>340</v>
-      </c>
-      <c r="D16" t="s">
-        <v>417</v>
-      </c>
-      <c r="E16" t="s">
-        <v>376</v>
-      </c>
-      <c r="F16" t="s">
-        <v>409</v>
-      </c>
-      <c r="J16">
-        <v>16</v>
-      </c>
-      <c r="K16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>406</v>
-      </c>
-      <c r="C17" t="s">
-        <v>420</v>
-      </c>
-      <c r="D17" t="s">
-        <v>407</v>
-      </c>
-      <c r="E17" t="s">
-        <v>408</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17">
-        <v>13.583920900000001</v>
-      </c>
-      <c r="I17">
-        <v>38.142608799999998</v>
-      </c>
-      <c r="J17">
-        <v>17</v>
-      </c>
-      <c r="K17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18">
-        <v>17</v>
-      </c>
-      <c r="K18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>421</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>407</v>
-      </c>
-      <c r="E19" t="s">
-        <v>422</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" t="s">
-        <v>423</v>
-      </c>
-      <c r="C20" t="s">
-        <v>323</v>
-      </c>
-      <c r="D20" t="s">
-        <v>417</v>
-      </c>
-      <c r="E20" t="s">
-        <v>422</v>
-      </c>
-      <c r="J20">
-        <v>18</v>
-      </c>
-      <c r="K20" t="s">
         <v>105</v>
       </c>
     </row>
@@ -5721,7 +5611,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.54296875" customWidth="1"/>
     <col min="2" max="2" width="30.7265625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="7" max="7" width="11.26953125" bestFit="1" customWidth="1"/>
@@ -7229,7 +7119,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Catchment Area Service Mapping - September.xlsx
+++ b/Catchment Area Service Mapping - September.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mezgabebe\Desktop\2025\ABA Mapping\ABA Product\251015 - Updated Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mezgabebe\Desktop\2025\ABA Mapping\ABA Product\data 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABBB6B1-3B39-4AEC-B798-A2AE2E8FD3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD0210E-513B-4027-9F01-2CCFD1DBB0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="860" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MainSheet" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="589">
   <si>
     <t>Region</t>
   </si>
@@ -1799,6 +1799,9 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>OSSHD/UNHCR</t>
   </si>
 </sst>
 </file>
@@ -2185,8 +2188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2427,7 +2430,7 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>588</v>
       </c>
       <c r="G6" t="s">
         <v>39</v>
@@ -2509,7 +2512,7 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>588</v>
       </c>
       <c r="G8" t="s">
         <v>51</v>
@@ -2591,7 +2594,7 @@
         <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>588</v>
       </c>
       <c r="G10" t="s">
         <v>67</v>
@@ -2714,7 +2717,7 @@
         <v>86</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>588</v>
       </c>
       <c r="G13" t="s">
         <v>87</v>
@@ -2755,7 +2758,7 @@
         <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>588</v>
       </c>
       <c r="G14" t="s">
         <v>92</v>
@@ -4797,7 +4800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
